--- a/doc/Project Assignment/PA05/TestCase_Group04.xlsx
+++ b/doc/Project Assignment/PA05/TestCase_Group04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phy\Desktop\ThisSemester\SoftwareEngineering\PA5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\cs300-assignment1\doc\Project Assignment\PA05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8112" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Function list" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -46,56 +46,18 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>Login with blank User name</t>
-  </si>
-  <si>
-    <t>1. Disallows the user to proceed and
-2. The error message should be displayed</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>1. Allows the user to proceed and
-2. The error message is not displayed</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>TDHoang</t>
-  </si>
-  <si>
-    <t>Login with blank Password</t>
-  </si>
-  <si>
-    <t>Login with blank User name and Password</t>
-  </si>
-  <si>
     <t>Function Name</t>
   </si>
   <si>
     <t>Function detail</t>
   </si>
   <si>
-    <t>Login as admin</t>
-  </si>
-  <si>
-    <t>Login as end user</t>
-  </si>
-  <si>
-    <t>Function 01: Login as admin</t>
-  </si>
-  <si>
-    <t>Function 02: Login as end user</t>
-  </si>
-  <si>
-    <t>UC01</t>
-  </si>
-  <si>
-    <t>UC02</t>
-  </si>
-  <si>
     <t>Case ID</t>
   </si>
   <si>
@@ -108,322 +70,13 @@
     <t>UI03</t>
   </si>
   <si>
-    <t>Log in with correct username and password</t>
-  </si>
-  <si>
-    <t>Log in with incorrect username</t>
-  </si>
-  <si>
     <t>UI04</t>
   </si>
   <si>
-    <t>HTThanh</t>
-  </si>
-  <si>
-    <t>NKHuy</t>
-  </si>
-  <si>
-    <t>1. Authenticated
-2. A welcome message will  be displayed</t>
-  </si>
-  <si>
     <t>The same ER</t>
   </si>
   <si>
-    <t>1. Unauthenticated
-2. A wrong user-account notice will  be displayed</t>
-  </si>
-  <si>
-    <t>1. Unauthenticated
-2. No notice is shown</t>
-  </si>
-  <si>
     <t>Function ID</t>
-  </si>
-  <si>
-    <t>Login with Special characters of User name and Password</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Enter User Name: " 'or'$'='$' "
-2. Enter Password: "  'or'$'='$'  "
-. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Enter User Name: " "
-2. Enter Password: " "
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Enter User Name: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abcx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-2. Enter Password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abcx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Enter User Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"abcd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "
-2.Enter Password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abcd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Enter User Name: " "
-2.Enter Password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abcd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Enter User Name: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abcd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "
-2. Enter Password: " "
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
   </si>
   <si>
     <t>Expected Result (ER)</t>
@@ -448,7 +101,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: hailua.com.vn</t>
+      <t>: Dog and Jog Game</t>
     </r>
   </si>
   <si>
@@ -471,25 +124,290 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 5</t>
+      <t>: 4</t>
     </r>
+  </si>
+  <si>
+    <t>S-SV-01</t>
+  </si>
+  <si>
+    <t>S-SV-02</t>
+  </si>
+  <si>
+    <t>Load Data and create a list of object in Scroll View</t>
+  </si>
+  <si>
+    <t>Switch between lists</t>
+  </si>
+  <si>
+    <t>S-SV-03</t>
+  </si>
+  <si>
+    <t>Click Item and Load Buy View</t>
+  </si>
+  <si>
+    <t>S-BV-01</t>
+  </si>
+  <si>
+    <t>S-BV-02</t>
+  </si>
+  <si>
+    <t>For Quantity of Shop Item you want to buy</t>
+  </si>
+  <si>
+    <t>Load Item Information in Buy View</t>
+  </si>
+  <si>
+    <t>List Is Empty</t>
+  </si>
+  <si>
+    <t>1. The Database for the corresponding item category is empty</t>
+  </si>
+  <si>
+    <t>TTThông</t>
+  </si>
+  <si>
+    <t>15/12/2017</t>
+  </si>
+  <si>
+    <t>List With 2 Items</t>
+  </si>
+  <si>
+    <t>1. The Database for the corresponding item category has two items</t>
+  </si>
+  <si>
+    <t>1. No item shown in list.
+2. Scroll bar not loaded</t>
+  </si>
+  <si>
+    <t>1. 2 items shown in list.
+2. Scroll bar not loaded</t>
+  </si>
+  <si>
+    <t>The same ER. However, items shown to be smaller than Content View</t>
+  </si>
+  <si>
+    <t>List With 4 Items</t>
+  </si>
+  <si>
+    <t>1. The Database for the corresponding item category has four items</t>
+  </si>
+  <si>
+    <t>1. 4 items shown in list.
+2. Scroll bar is loaded</t>
+  </si>
+  <si>
+    <t>The Same ER. Items fit the content view with the presence of the Scroll Bar.</t>
+  </si>
+  <si>
+    <t>Item with long name</t>
+  </si>
+  <si>
+    <t>1. Database stores some database with long name</t>
+  </si>
+  <si>
+    <t>1. Words are visible</t>
+  </si>
+  <si>
+    <t>1. Some words are hidden behind the price tag. Some words are out of view.</t>
+  </si>
+  <si>
+    <t>Function 01: Load Data and Create a List Of Object in Scroll View</t>
+  </si>
+  <si>
+    <t>Function 02: Switch Between Lists</t>
+  </si>
+  <si>
+    <t>Switch from Food List to Skin List</t>
+  </si>
+  <si>
+    <t>1. Old items are removed.
+2. New items are loaded beautifully</t>
+  </si>
+  <si>
+    <t>The old items are removed but the new items are loaded below the disappeared old items. Some are out of view.</t>
+  </si>
+  <si>
+    <t>Switch from No Items Shown to Food List</t>
+  </si>
+  <si>
+    <t>1. New Items are loaded beautifully</t>
+  </si>
+  <si>
+    <t>Switch from Food List to Owned Food List</t>
+  </si>
+  <si>
+    <t>1. Begins with no items shown.
+2. Click on the button "Food Tab"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Begins with Food List shown.
+2. Click on the button "Skin Tab"
+</t>
+  </si>
+  <si>
+    <t>1. Begins with Food List shown.
+2. Click on the tick box owned.</t>
+  </si>
+  <si>
+    <t>List shown objects bought</t>
+  </si>
+  <si>
+    <t>Nothing happened.</t>
+  </si>
+  <si>
+    <t>Function 03: Click Item and Load Buy View</t>
+  </si>
+  <si>
+    <t>Click one Food List Item</t>
+  </si>
+  <si>
+    <t>1. Click a Food List item</t>
+  </si>
+  <si>
+    <t>1. A Buy view is shown</t>
+  </si>
+  <si>
+    <t>Second Buy View</t>
+  </si>
+  <si>
+    <t>1. Click an item and a Buy View shown.
+2. Close the Buy View
+3. Click another item.</t>
+  </si>
+  <si>
+    <t>1. A Buy View is shown</t>
+  </si>
+  <si>
+    <t>A Buy view is shown, however, with the old items information</t>
+  </si>
+  <si>
+    <t>Function 04: Load Item Information in Buy View</t>
+  </si>
+  <si>
+    <t>Food Item Buy View</t>
+  </si>
+  <si>
+    <t>General Buy View</t>
+  </si>
+  <si>
+    <t>1. Click an item.
+2. The corresponding buy view is shown</t>
+  </si>
+  <si>
+    <t>Objects Behind Buy View</t>
+  </si>
+  <si>
+    <t>1. Most old items are shown behind the background
+2. A few items are shown above the background
+3. Click on the background would exit the buy view</t>
+  </si>
+  <si>
+    <t>1. A Buy view is shown
+2. Interact and observe the behaviors of the items behind the buy view.</t>
+  </si>
+  <si>
+    <t>Everything is the same as the ER, except the Coin View. Expected to be above the background</t>
+  </si>
+  <si>
+    <t>1. Item Box Is Shown.
+2. Background is dark and transparent.
+3. Buy Button is shown.
+4. Buttons in this view is clickable.</t>
+  </si>
+  <si>
+    <t>1. Normal General Buy View is shown.
+2. Quantity View is shown.
+3. Buttons in this view is clickable.</t>
+  </si>
+  <si>
+    <t>Quantity View is shown. Expected the initial number is 1, not 0.</t>
+  </si>
+  <si>
+    <t>Skin Item Buy View</t>
+  </si>
+  <si>
+    <t>1. Normal General Buy View is shown.
+2. Quantity View is NOT shown.
+3. Buttons in this view is clickable.</t>
+  </si>
+  <si>
+    <t>Quantity View</t>
+  </si>
+  <si>
+    <t>Function 05: Quantity View</t>
+  </si>
+  <si>
+    <t>Initial Value</t>
+  </si>
+  <si>
+    <t>1. Buy View is shown and Quantity View is shown</t>
+  </si>
+  <si>
+    <t>1. The initial number in quantity view is 1.</t>
+  </si>
+  <si>
+    <t>The number was 0</t>
+  </si>
+  <si>
+    <t>Increase Value</t>
+  </si>
+  <si>
+    <t>1. The quantity value is increased and the number UI is updated (2)</t>
+  </si>
+  <si>
+    <t>Increase Value with Bound</t>
+  </si>
+  <si>
+    <t>1. A Quantity view is shown
+2. The Quantity Value is 1.
+3. Click the Increase Button in Quantity View</t>
+  </si>
+  <si>
+    <t>1. A Quantity view is shown
+2. The Quantity Value is 99.
+3. Click the Increase Button in Quantity View</t>
+  </si>
+  <si>
+    <t>1. The quantity value increases but is limited as 99. Return to 99.</t>
+  </si>
+  <si>
+    <t>The same as ER.  The number 100 is never shown.</t>
+  </si>
+  <si>
+    <t>Decrease Value with Bound</t>
+  </si>
+  <si>
+    <t>1. A Quantity view is shown
+2. The Quantity Value is 1.
+3. Click the Decrease Button in Quantity View</t>
+  </si>
+  <si>
+    <t>1. The quantity value decreased but is limited at 1. Return to 1.</t>
+  </si>
+  <si>
+    <t>UI05</t>
+  </si>
+  <si>
+    <t>Decrease Value</t>
+  </si>
+  <si>
+    <t>1. A Quantity view is shown
+2. The Quantity Value is 6.
+3. Click the Decrease Button in Quantity View</t>
+  </si>
+  <si>
+    <t>1. The quantity value decreased and the number UI is updated.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -538,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -552,11 +470,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -579,32 +522,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -619,7 +541,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A5:D9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A5:D10" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Function Name"/>
@@ -631,17 +553,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J24" totalsRowShown="0" dataDxfId="6">
   <tableColumns count="10">
     <tableColumn id="1" name="Function ID"/>
     <tableColumn id="11" name="Case ID"/>
     <tableColumn id="2" name="Test case name"/>
-    <tableColumn id="4" name="Test step" dataDxfId="7"/>
-    <tableColumn id="5" name="Expected Result (ER)" dataDxfId="6"/>
-    <tableColumn id="6" name="Actual Result" dataDxfId="5"/>
-    <tableColumn id="7" name="Status" dataDxfId="4"/>
-    <tableColumn id="8" name="Tester" dataDxfId="3"/>
-    <tableColumn id="9" name="Tested Date" dataDxfId="2"/>
+    <tableColumn id="4" name="Test step" dataDxfId="5"/>
+    <tableColumn id="5" name="Expected Result (ER)" dataDxfId="4"/>
+    <tableColumn id="6" name="Actual Result" dataDxfId="3"/>
+    <tableColumn id="7" name="Status" dataDxfId="2"/>
+    <tableColumn id="8" name="Tester" dataDxfId="1"/>
+    <tableColumn id="9" name="Tested Date" dataDxfId="0"/>
     <tableColumn id="10" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -724,23 +646,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -776,23 +681,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -969,56 +857,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1031,27 +948,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1060,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1078,9 +997,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1092,125 +1011,125 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1222,91 +1141,452 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3">
-        <v>41459</v>
+      <c r="H20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Project Assignment/PA05/TestCase_Group04.xlsx
+++ b/doc/Project Assignment/PA05/TestCase_Group04.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phy\Desktop\ThisSemester\SoftwareEngineering\PA5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phy\Documents\GitHub\cs300-assignment1\doc\Project Assignment\PA05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -46,56 +46,18 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>Login with blank User name</t>
-  </si>
-  <si>
-    <t>1. Disallows the user to proceed and
-2. The error message should be displayed</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>1. Allows the user to proceed and
-2. The error message is not displayed</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>TDHoang</t>
-  </si>
-  <si>
-    <t>Login with blank Password</t>
-  </si>
-  <si>
-    <t>Login with blank User name and Password</t>
-  </si>
-  <si>
     <t>Function Name</t>
   </si>
   <si>
     <t>Function detail</t>
   </si>
   <si>
-    <t>Login as admin</t>
-  </si>
-  <si>
-    <t>Login as end user</t>
-  </si>
-  <si>
-    <t>Function 01: Login as admin</t>
-  </si>
-  <si>
-    <t>Function 02: Login as end user</t>
-  </si>
-  <si>
-    <t>UC01</t>
-  </si>
-  <si>
-    <t>UC02</t>
-  </si>
-  <si>
     <t>Case ID</t>
   </si>
   <si>
@@ -108,322 +70,13 @@
     <t>UI03</t>
   </si>
   <si>
-    <t>Log in with correct username and password</t>
-  </si>
-  <si>
-    <t>Log in with incorrect username</t>
-  </si>
-  <si>
     <t>UI04</t>
   </si>
   <si>
-    <t>HTThanh</t>
-  </si>
-  <si>
-    <t>NKHuy</t>
-  </si>
-  <si>
-    <t>1. Authenticated
-2. A welcome message will  be displayed</t>
-  </si>
-  <si>
     <t>The same ER</t>
   </si>
   <si>
-    <t>1. Unauthenticated
-2. A wrong user-account notice will  be displayed</t>
-  </si>
-  <si>
-    <t>1. Unauthenticated
-2. No notice is shown</t>
-  </si>
-  <si>
     <t>Function ID</t>
-  </si>
-  <si>
-    <t>Login with Special characters of User name and Password</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Enter User Name: " 'or'$'='$' "
-2. Enter Password: "  'or'$'='$'  "
-. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Enter User Name: " "
-2. Enter Password: " "
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Enter User Name: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abcx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-2. Enter Password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abcx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Enter User Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"abcd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "
-2.Enter Password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abcd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Enter User Name: " "
-2.Enter Password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abcd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Enter User Name: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abcd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "
-2. Enter Password: " "
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
   </si>
   <si>
     <t>Expected Result (ER)</t>
@@ -448,7 +101,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: hailua.com.vn</t>
+      <t>: Dog and Jog Game</t>
     </r>
   </si>
   <si>
@@ -471,25 +124,335 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 5</t>
+      <t>: 4</t>
     </r>
+  </si>
+  <si>
+    <t>S-SV-01</t>
+  </si>
+  <si>
+    <t>S-SV-02</t>
+  </si>
+  <si>
+    <t>Load Data and create a list of object in Scroll View</t>
+  </si>
+  <si>
+    <t>Switch between lists</t>
+  </si>
+  <si>
+    <t>S-SV-03</t>
+  </si>
+  <si>
+    <t>Click Item and Load Buy View</t>
+  </si>
+  <si>
+    <t>S-BV-01</t>
+  </si>
+  <si>
+    <t>S-BV-02</t>
+  </si>
+  <si>
+    <t>For Quantity of Shop Item you want to buy</t>
+  </si>
+  <si>
+    <t>Load Item Information in Buy View</t>
+  </si>
+  <si>
+    <t>List Is Empty</t>
+  </si>
+  <si>
+    <t>1. The Database for the corresponding item category is empty</t>
+  </si>
+  <si>
+    <t>TTThông</t>
+  </si>
+  <si>
+    <t>15/12/2017</t>
+  </si>
+  <si>
+    <t>List With 2 Items</t>
+  </si>
+  <si>
+    <t>1. The Database for the corresponding item category has two items</t>
+  </si>
+  <si>
+    <t>1. No item shown in list.
+2. Scroll bar not loaded</t>
+  </si>
+  <si>
+    <t>1. 2 items shown in list.
+2. Scroll bar not loaded</t>
+  </si>
+  <si>
+    <t>The same ER. However, items shown to be smaller than Content View</t>
+  </si>
+  <si>
+    <t>List With 4 Items</t>
+  </si>
+  <si>
+    <t>1. The Database for the corresponding item category has four items</t>
+  </si>
+  <si>
+    <t>1. 4 items shown in list.
+2. Scroll bar is loaded</t>
+  </si>
+  <si>
+    <t>The Same ER. Items fit the content view with the presence of the Scroll Bar.</t>
+  </si>
+  <si>
+    <t>Item with long name</t>
+  </si>
+  <si>
+    <t>1. Database stores some database with long name</t>
+  </si>
+  <si>
+    <t>1. Words are visible</t>
+  </si>
+  <si>
+    <t>1. Some words are hidden behind the price tag. Some words are out of view.</t>
+  </si>
+  <si>
+    <t>Function 01: Load Data and Create a List Of Object in Scroll View</t>
+  </si>
+  <si>
+    <t>Function 02: Switch Between Lists</t>
+  </si>
+  <si>
+    <t>Switch from Food List to Skin List</t>
+  </si>
+  <si>
+    <t>1. Old items are removed.
+2. New items are loaded beautifully</t>
+  </si>
+  <si>
+    <t>The old items are removed but the new items are loaded below the disappeared old items. Some are out of view.</t>
+  </si>
+  <si>
+    <t>Switch from No Items Shown to Food List</t>
+  </si>
+  <si>
+    <t>1. New Items are loaded beautifully</t>
+  </si>
+  <si>
+    <t>Switch from Food List to Owned Food List</t>
+  </si>
+  <si>
+    <t>1. Begins with no items shown.
+2. Click on the button "Food Tab"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Begins with Food List shown.
+2. Click on the button "Skin Tab"
+</t>
+  </si>
+  <si>
+    <t>1. Begins with Food List shown.
+2. Click on the tick box owned.</t>
+  </si>
+  <si>
+    <t>List shown objects bought</t>
+  </si>
+  <si>
+    <t>Nothing happened.</t>
+  </si>
+  <si>
+    <t>Function 03: Click Item and Load Buy View</t>
+  </si>
+  <si>
+    <t>Click one Food List Item</t>
+  </si>
+  <si>
+    <t>1. Click a Food List item</t>
+  </si>
+  <si>
+    <t>1. A Buy view is shown</t>
+  </si>
+  <si>
+    <t>Second Buy View</t>
+  </si>
+  <si>
+    <t>1. Click an item and a Buy View shown.
+2. Close the Buy View
+3. Click another item.</t>
+  </si>
+  <si>
+    <t>1. A Buy View is shown</t>
+  </si>
+  <si>
+    <t>A Buy view is shown, however, with the old items information</t>
+  </si>
+  <si>
+    <t>Function 04: Load Item Information in Buy View</t>
+  </si>
+  <si>
+    <t>Food Item Buy View</t>
+  </si>
+  <si>
+    <t>General Buy View</t>
+  </si>
+  <si>
+    <t>1. Click an item.
+2. The corresponding buy view is shown</t>
+  </si>
+  <si>
+    <t>Objects Behind Buy View</t>
+  </si>
+  <si>
+    <t>1. Most old items are shown behind the background
+2. A few items are shown above the background
+3. Click on the background would exit the buy view</t>
+  </si>
+  <si>
+    <t>1. A Buy view is shown
+2. Interact and observe the behaviors of the items behind the buy view.</t>
+  </si>
+  <si>
+    <t>Everything is the same as the ER, except the Coin View. Expected to be above the background</t>
+  </si>
+  <si>
+    <t>1. Item Box Is Shown.
+2. Background is dark and transparent.
+3. Buy Button is shown.
+4. Buttons in this view is clickable.</t>
+  </si>
+  <si>
+    <t>1. Normal General Buy View is shown.
+2. Quantity View is shown.
+3. Buttons in this view is clickable.</t>
+  </si>
+  <si>
+    <t>Quantity View is shown. Expected the initial number is 1, not 0.</t>
+  </si>
+  <si>
+    <t>Skin Item Buy View</t>
+  </si>
+  <si>
+    <t>1. Normal General Buy View is shown.
+2. Quantity View is NOT shown.
+3. Buttons in this view is clickable.</t>
+  </si>
+  <si>
+    <t>Quantity View</t>
+  </si>
+  <si>
+    <t>Function 05: Quantity View</t>
+  </si>
+  <si>
+    <t>Initial Value</t>
+  </si>
+  <si>
+    <t>1. Buy View is shown and Quantity View is shown</t>
+  </si>
+  <si>
+    <t>1. The initial number in quantity view is 1.</t>
+  </si>
+  <si>
+    <t>The number was 0</t>
+  </si>
+  <si>
+    <t>Increase Value</t>
+  </si>
+  <si>
+    <t>1. The quantity value is increased and the number UI is updated (2)</t>
+  </si>
+  <si>
+    <t>Increase Value with Bound</t>
+  </si>
+  <si>
+    <t>1. A Quantity view is shown
+2. The Quantity Value is 1.
+3. Click the Increase Button in Quantity View</t>
+  </si>
+  <si>
+    <t>1. A Quantity view is shown
+2. The Quantity Value is 99.
+3. Click the Increase Button in Quantity View</t>
+  </si>
+  <si>
+    <t>1. The quantity value increases but is limited as 99. Return to 99.</t>
+  </si>
+  <si>
+    <t>The same as ER.  The number 100 is never shown.</t>
+  </si>
+  <si>
+    <t>Decrease Value with Bound</t>
+  </si>
+  <si>
+    <t>1. A Quantity view is shown
+2. The Quantity Value is 1.
+3. Click the Decrease Button in Quantity View</t>
+  </si>
+  <si>
+    <t>1. The quantity value decreased but is limited at 1. Return to 1.</t>
+  </si>
+  <si>
+    <t>UI05</t>
+  </si>
+  <si>
+    <t>Decrease Value</t>
+  </si>
+  <si>
+    <t>1. A Quantity view is shown
+2. The Quantity Value is 6.
+3. Click the Decrease Button in Quantity View</t>
+  </si>
+  <si>
+    <t>1. The quantity value decreased and the number UI is updated.</t>
+  </si>
+  <si>
+    <t>Function 06: Facebook Sharing</t>
+  </si>
+  <si>
+    <t>LTPhy</t>
+  </si>
+  <si>
+    <t>17/12/2017</t>
+  </si>
+  <si>
+    <t>When users click button Share a Login Facebook Window appears. Users need to log in before sharing.</t>
+  </si>
+  <si>
+    <t>1. Login Facebook Window appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click button "Share"               </t>
+  </si>
+  <si>
+    <t>1. Login successfully</t>
+  </si>
+  <si>
+    <t>1. The caption and description is appeard in the text box of Sharing window</t>
+  </si>
+  <si>
+    <t>Blank caption and discription because this app is not available on store yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User click "Post" button. The content appears on their walls </t>
+  </si>
+  <si>
+    <t>1. Click "Post" button</t>
+  </si>
+  <si>
+    <t>The post appears on users' walls.</t>
+  </si>
+  <si>
+    <t>After Logging in succesfully, sharing  window appears with caption and description provided</t>
+  </si>
+  <si>
+    <t>S-FS-01</t>
+  </si>
+  <si>
+    <t>Sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -538,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -552,11 +515,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -579,32 +567,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -619,7 +586,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A5:D9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A5:D11" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Function Name"/>
@@ -631,17 +598,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J30" totalsRowShown="0" dataDxfId="6">
   <tableColumns count="10">
     <tableColumn id="1" name="Function ID"/>
     <tableColumn id="11" name="Case ID"/>
     <tableColumn id="2" name="Test case name"/>
-    <tableColumn id="4" name="Test step" dataDxfId="7"/>
-    <tableColumn id="5" name="Expected Result (ER)" dataDxfId="6"/>
-    <tableColumn id="6" name="Actual Result" dataDxfId="5"/>
-    <tableColumn id="7" name="Status" dataDxfId="4"/>
-    <tableColumn id="8" name="Tester" dataDxfId="3"/>
-    <tableColumn id="9" name="Tested Date" dataDxfId="2"/>
+    <tableColumn id="4" name="Test step" dataDxfId="5"/>
+    <tableColumn id="5" name="Expected Result (ER)" dataDxfId="4"/>
+    <tableColumn id="6" name="Actual Result" dataDxfId="3"/>
+    <tableColumn id="7" name="Status" dataDxfId="2"/>
+    <tableColumn id="8" name="Tester" dataDxfId="1"/>
+    <tableColumn id="9" name="Tested Date" dataDxfId="0"/>
     <tableColumn id="10" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -969,26 +936,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1010,7 +979,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,7 +987,42 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1031,9 +1035,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1048,10 +1054,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1060,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1080,7 +1086,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1097,57 +1103,57 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="3">
-        <v>41429</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1155,28 +1161,28 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3">
-        <v>41429</v>
+        <v>34</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1184,33 +1190,33 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="3">
-        <v>41429</v>
+        <v>34</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1222,92 +1228,574 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="H20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="3">
-        <v>41459</v>
-      </c>
+      <c r="C26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Project Assignment/PA05/TestCase_Group04.xlsx
+++ b/doc/Project Assignment/PA05/TestCase_Group04.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phy\Documents\GitHub\cs300-assignment1\doc\Project Assignment\PA05\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Function list" sheetId="2" r:id="rId1"/>
     <sheet name="Test cases" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -448,7 +443,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,7 +653,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -691,26 +686,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,23 +721,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1037,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Project Assignment/PA05/TestCase_Group04.xlsx
+++ b/doc/Project Assignment/PA05/TestCase_Group04.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duy-Bach\Desktop\Git\cs300-assignment1\doc\Project Assignment\PA05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -439,11 +444,48 @@
   <si>
     <t>Sharing</t>
   </si>
+  <si>
+    <t>Function 07: Progress Tracking</t>
+  </si>
+  <si>
+    <t>S-PT-01</t>
+  </si>
+  <si>
+    <t>User click "See achievements" button, cahnge layout to Achivement View</t>
+  </si>
+  <si>
+    <t>User click "See pet's desire" button, cahnge layout to Achivement View</t>
+  </si>
+  <si>
+    <t>1. Currently in DiaryScene
+2. Click "See achievements" button</t>
+  </si>
+  <si>
+    <t>1. Currently in DiaryScene
+2. Click "See achievements" button
+3. Wait for Achievement screen come up
+4. Click "See Pet's Desire" button</t>
+  </si>
+  <si>
+    <t>The layout change to Achievement view</t>
+  </si>
+  <si>
+    <t>The layout change to Achievement view, and turn back to Quest View after clicking "See Pet's Desire" button</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>LDBach</t>
+  </si>
+  <si>
+    <t>17/12/207</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -492,11 +534,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -514,6 +567,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -686,9 +742,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,6 +794,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -996,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,24 +1829,76 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
+      <c r="A29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
